--- a/SeleniumPrj/web自动化测试用例.xlsx
+++ b/SeleniumPrj/web自动化测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>No.</t>
   </si>
@@ -89,19 +89,6 @@
     <t>test02</t>
   </si>
   <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>错误的账号登录</t>
-  </si>
-  <si>
-    <t>1.打开http://crm.ddhs.51lianqian.net:7035/login
-2.输入账号【lichengyan/ABC123】点击登录</t>
-  </si>
-  <si>
-    <t>无法登录</t>
-  </si>
-  <si>
     <t>test03</t>
   </si>
   <si>
@@ -124,6 +111,36 @@
   </si>
   <si>
     <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
   </si>
 </sst>
 </file>
@@ -136,7 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +169,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,48 +199,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -256,12 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +284,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -301,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,25 +320,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,6 +369,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,12 +399,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,139 +447,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,175 +693,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1329,40 +1339,26 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" ht="40.5" spans="1:13">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1372,16 +1368,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1391,16 +1385,14 @@
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1410,16 +1402,14 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1429,16 +1419,14 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1448,16 +1436,14 @@
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1467,16 +1453,14 @@
       <c r="G9" s="4"/>
       <c r="H9" s="7"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1486,16 +1470,14 @@
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1505,12 +1487,180 @@
       <c r="G11" s="4"/>
       <c r="H11" s="7"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
